--- a/Listen&Read/雅思阅读.xlsx
+++ b/Listen&Read/雅思阅读.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/个人数据/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chukexin1/GitHub/work-life-balance/Listen&amp;Read/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD730E8C-ECDD-5143-B7DC-E59AF36AFA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC95218-F61B-BD45-A51E-3382EF92FAFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{CF0977D7-CE57-054A-B4BC-2AC7F7BDCA47}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{CF0977D7-CE57-054A-B4BC-2AC7F7BDCA47}"/>
   </bookViews>
   <sheets>
     <sheet name="剑8-9" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="剑15" sheetId="3" r:id="rId3"/>
     <sheet name="剑11" sheetId="4" r:id="rId4"/>
     <sheet name="剑17" sheetId="5" r:id="rId5"/>
+    <sheet name="剑14" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="557">
   <si>
     <t>题目</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -10022,12 +10023,348 @@
     <t>两处都表示本题选No</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">Test4 - Passage 1  The secret of staying young?    </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Giraldo watched how well the ants</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve"> took care of the young of the colony</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>colony 群体，部落，殖民地；
+这里我填成了colony，单词不认识导致的； 而且young ：adj 幼小的 + n 幼崽, 年轻人； 这里the young 明显是名词性质，所以应该填young</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>young</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>how well ants looked after their 2____</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> how 5____ they attacked prey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>agressively</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">And she experimented with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>how ants react to live prey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: … … … … . And when it came to reacting to prey, the older ants attacked the poor fruit fly just as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>aggressively</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as the young ones did,</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">这里是被前面给干扰了；考试时就在纠结应该填哪个。注意：这里react/reacting = attack, 所以应该是选后面的aggressively </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>• comparison between age and the 6____ of dying cells in the brains of ants</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cells that were close to death  = dying cells;  然后这里是通过  no + nor 来标识并列的，同题干中的and</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Then Giraldo compared the brains of 20-day-old and 95-day-old ants, identifying any </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>cells that were close to death</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. She saw </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> major differences with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>nor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> was there any difference in the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>location</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the dying cells, showing that age didn’t seem to affect specific brain functions.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> life expectancy   预期寿命
+captive  被关起来的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Test4 - Passage 3  The secret of staying young?    </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Test4 - Passage 2  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">32 One study examined by Rochman was </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>expecting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to find that mussels were harmed by eating plastic.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Strikingly, Rochman says, only one well-designed study</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve"> failed to find the effect it was looking for,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> an investigation of mussels ingesting microscopic plastic bits. The plastic moved from the Mussels' stomachs to their bloodstreams, scientists found, and stayed there for weeks - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>but didn't seem to stress out the shellfish</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>题干：was expecting to find that  预计会发现；  原文：failed to find the effect it was looking for 没有发现它预期的影响 + 后面没有对贻贝造成stress， 双重否定 =&gt; true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Studies of marine debris found the biggest threats were
+•  plastic (not metal or wood)
+•  bits of debris that were 34____ (harmful to animals)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>large</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Within the studies they looked at, most of the proven threats came from plastic debris, rather than other materials like metal or wood. Most of the dangers also involved </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve">large pieces of debris </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- animals getting entangled in trash, for example, or eating it and severely injuring themselves.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我这里填成了danger； 但是danger和题干中的harmful重复了。 所以这一题应该填large，  也跟35题的microplastic 相对应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="49">
+  <fonts count="50">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -10352,6 +10689,11 @@
       <family val="4"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线 (正文)"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -10532,18 +10874,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -10567,6 +10897,18 @@
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11042,12 +11384,12 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="17" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
@@ -11074,7 +11416,7 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="41" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -11090,7 +11432,7 @@
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
@@ -11164,15 +11506,15 @@
       <c r="F9" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="136">
+    <row r="12" spans="1:6" ht="119">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -11270,12 +11612,12 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" ht="68">
       <c r="A3" s="2" t="s">
@@ -11306,12 +11648,12 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:4" ht="136">
       <c r="A7" s="2" t="s">
@@ -11354,10 +11696,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="114" customHeight="1">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="41" t="s">
         <v>127</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -11368,8 +11710,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="51">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="2" t="s">
         <v>129</v>
       </c>
@@ -11378,8 +11720,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="67">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="2" t="s">
         <v>130</v>
       </c>
@@ -11388,8 +11730,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="85">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="2" t="s">
         <v>135</v>
       </c>
@@ -11398,8 +11740,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="34">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="2" t="s">
         <v>131</v>
       </c>
@@ -11408,10 +11750,10 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2"/>
@@ -11420,12 +11762,12 @@
       <c r="D17" s="6"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
     </row>
     <row r="20" spans="1:6" ht="51">
       <c r="A20" s="2" t="s">
@@ -11503,12 +11845,12 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
     </row>
     <row r="27" spans="1:6" ht="68">
       <c r="A27" s="2" t="s">
@@ -11581,12 +11923,12 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
     </row>
     <row r="34" spans="1:4" ht="102">
       <c r="A34" s="2" t="s">
@@ -11659,12 +12001,12 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
     </row>
     <row r="41" spans="1:4" ht="51">
       <c r="A41" s="2" t="s">
@@ -11749,12 +12091,12 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
     </row>
     <row r="49" spans="1:4" ht="102">
       <c r="A49" s="15" t="s">
@@ -11811,12 +12153,12 @@
       <c r="D53" s="6"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
     </row>
     <row r="55" spans="1:4" ht="68">
       <c r="A55" s="2" t="s">
@@ -11872,12 +12214,12 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="34" t="s">
+      <c r="A60" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
     </row>
     <row r="61" spans="1:4" ht="34">
       <c r="A61" s="8" t="s">
@@ -11970,12 +12312,12 @@
       <c r="D67" s="8"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="35" t="s">
+      <c r="A68" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
     </row>
     <row r="69" spans="1:4" ht="197" customHeight="1">
       <c r="A69" s="19" t="s">
@@ -12026,12 +12368,12 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="35" t="s">
+      <c r="A73" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
     </row>
     <row r="74" spans="1:4" ht="51">
       <c r="A74" s="8" t="s">
@@ -12139,6 +12481,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A54:D54"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="A10:A14"/>
@@ -12147,12 +12495,6 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A54:D54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12177,28 +12519,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
     </row>
     <row r="14" spans="1:5" ht="17">
       <c r="A14" s="21" t="s">
@@ -12260,12 +12602,12 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
     </row>
     <row r="21" spans="1:5" ht="17">
       <c r="A21" s="23" t="s">
@@ -12362,12 +12704,12 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
     </row>
     <row r="32" spans="1:5" ht="51">
       <c r="A32" s="8" t="s">
@@ -12454,14 +12796,14 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-    </row>
-    <row r="41" spans="1:4" ht="102">
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+    </row>
+    <row r="41" spans="1:4" ht="85">
       <c r="A41" s="8" t="s">
         <v>313</v>
       </c>
@@ -12507,12 +12849,12 @@
       <c r="D44" s="27"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="42" t="s">
         <v>327</v>
       </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
     </row>
     <row r="47" spans="1:4" ht="34">
       <c r="A47" s="17" t="s">
@@ -12529,12 +12871,12 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
     </row>
     <row r="50" spans="1:4" ht="102">
       <c r="A50" s="8" t="s">
@@ -12556,12 +12898,12 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="42" t="s">
         <v>335</v>
       </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
     </row>
     <row r="54" spans="1:4" ht="221">
       <c r="A54" s="8" t="s">
@@ -12613,12 +12955,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="42" t="s">
         <v>394</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:5" ht="85">
       <c r="A2" s="30" t="s">
@@ -12638,12 +12980,12 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="42" t="s">
         <v>399</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
     </row>
     <row r="4" spans="1:5" ht="136">
       <c r="A4" s="8" t="s">
@@ -12729,7 +13071,7 @@
       <c r="B9" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="44" t="s">
         <v>424</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -12743,18 +13085,18 @@
       <c r="B10" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="C10" s="36"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="8" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="42" t="s">
         <v>427</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:5" ht="51">
       <c r="A12" s="8" t="s">
@@ -12802,12 +13144,12 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="42" t="s">
         <v>340</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
     </row>
     <row r="16" spans="1:5" ht="102">
       <c r="A16" s="8" t="s">
@@ -12824,12 +13166,12 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
     </row>
     <row r="18" spans="1:4" ht="51">
       <c r="A18" s="8" t="s">
@@ -12902,12 +13244,12 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="42" t="s">
         <v>366</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
     </row>
     <row r="24" spans="1:4" ht="136">
       <c r="A24" s="29" t="s">
@@ -13016,12 +13358,12 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="42" t="s">
         <v>440</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
     </row>
     <row r="34" spans="1:5" ht="51">
       <c r="A34" s="8" t="s">
@@ -13072,12 +13414,12 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
     </row>
     <row r="38" spans="1:5" ht="51">
       <c r="A38" s="8" t="s">
@@ -13128,12 +13470,12 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="42" t="s">
         <v>468</v>
       </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
     </row>
     <row r="42" spans="1:5" ht="17">
       <c r="A42" s="32" t="s">
@@ -13210,16 +13552,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A41:D41"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A41:D41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13231,8 +13573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB95267B-25C2-5C41-B21C-01A270EE52BB}">
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13245,12 +13587,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="8" customFormat="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="51">
       <c r="A2" s="8" t="s">
@@ -13265,7 +13607,7 @@
       <c r="D2" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="33" t="s">
         <v>488</v>
       </c>
     </row>
@@ -13284,15 +13626,15 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="8" customFormat="1">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="42" t="s">
         <v>496</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
     </row>
     <row r="5" spans="1:8" ht="17">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="34" t="s">
         <v>500</v>
       </c>
       <c r="B5" s="8"/>
@@ -13300,64 +13642,64 @@
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="68">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="37" t="s">
         <v>498</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="39" t="s">
         <v>510</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="39" t="s">
         <v>505</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="38" t="s">
         <v>501</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" ht="68">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="37" t="s">
         <v>499</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="39" t="s">
         <v>506</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="38" t="s">
         <v>502</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" ht="85">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="37" t="s">
         <v>503</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="39" t="s">
         <v>508</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="39" t="s">
         <v>509</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="37" t="s">
         <v>504</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8" ht="68">
       <c r="A9" s="8" t="s">
@@ -13374,12 +13716,12 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="8" customFormat="1" ht="34">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="8" t="s">
         <v>516</v>
       </c>
@@ -14076,4 +14418,1044 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28F2429-82C5-3F45-A4E1-C5829EDCE53B}">
+  <dimension ref="A1:D161"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="64.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="8" customFormat="1">
+      <c r="A1" s="42" t="s">
+        <v>534</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+    </row>
+    <row r="2" spans="1:4" ht="136">
+      <c r="A2" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="85">
+      <c r="A3" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="68">
+      <c r="A4" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="8" customFormat="1">
+      <c r="A5" s="42" t="s">
+        <v>549</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+    </row>
+    <row r="6" spans="1:4" ht="34">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="8" customFormat="1">
+      <c r="A7" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+    </row>
+    <row r="8" spans="1:4" ht="119">
+      <c r="A8" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="B8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="85">
+      <c r="A9" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="8"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Listen&Read/雅思阅读.xlsx
+++ b/Listen&Read/雅思阅读.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chukexin1/GitHub/work-life-balance/Listen&amp;Read/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC95218-F61B-BD45-A51E-3382EF92FAFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD92876-7CA8-2347-9B7E-DA231DB94CC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{CF0977D7-CE57-054A-B4BC-2AC7F7BDCA47}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{CF0977D7-CE57-054A-B4BC-2AC7F7BDCA47}"/>
   </bookViews>
   <sheets>
     <sheet name="剑8-9" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="633">
   <si>
     <t>题目</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -10359,12 +10359,1513 @@
     <t>我这里填成了danger； 但是danger和题干中的harmful重复了。 所以这一题应该填large，  也跟35题的microplastic 相对应</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Test4 - Passage 1 Research Using Twins</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 Twins are at greater risk of developing certain illnesses than non-twins.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> If </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>identical twins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are more similar to each other with respect to an ailment than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>fraternal twins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are, then vulnerability to the disease must be rooted at least in part in heredity.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原文是 同卵双胞胎 和 异卵双胞胎之间的比较，没提到twins 和 non-twins 之间的边角</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8____ pioneered research into genetics using twins</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9____ carried out research into twins who had lived apart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A. Francis Galton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B. Thomas Bouchard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The idea of using twins to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>measure the influence of heredity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dates back to 1875, when the English scientist Francis Galton first suggested the approach (and coined the phrase 'nature and nurture').</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pioneer 创始人，开拓者
+heredity 遗传</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纠结于genetic + 不认识 heredity 导致的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>live apart 分开居住</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">But twin studies took a surprising twist in the 1980s, with the arrival of studies into </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>identical twins who had been separated at birth and reunited as adults</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Over two decades 137 sets of twins eventually visited Thomas Bouchard's lab in what became known as the Minnesota Study of Twins Reared Apart. </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将live apart理解为住在附近的。导致没找到任何答案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你理解的意思没在文中任何地方出现过，很可能是你记错了单词含义，此时应该去找关键词</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test4 - Passage 2 An Introduction to Film Sound</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 In the first paragraph, the writer makes a point that</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. the director should plan the sound track at an early stage in filming.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>B. it would be wrong to overlook the contribution of sound to the artistry of films.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C. the music industry can have a beneficial influence on sound in film.
+D. it is important for those working on the sound in a film to have sole responsibility for it</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>overlook 意思是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>忽视</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>； 单词问题导致选错了</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意 选项 的 关键词；找关键词</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 In the third paragraph, the writer suggests that  (B)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. audiences are likely to be critical of film dialogue that does not reflect their own </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>experience</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+B. film dialogue that appears to be dull may have a specific </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>purpose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+C. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>filmmakers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>vary considerably</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the skill with which they handle dialogue.
+D. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>the mos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t successful films are those with dialogue of a high quality.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overlook  忽视</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vary 不同，变化
+critical   批评的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When voice textures fit the performer's physiognomy and gestures, a whole and very </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>realistic persona</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> emerges. The viewer sees not an actor working at his craft, but </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>another human being struggling with life.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> It is interesting to note that how dialogue is used and the very amount of dialogue used </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>varies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> widely among films. For example, in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve">the highly successful </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>science-fiction film 2001, little dialogue was evident, and most of it was banal and of little intrinsic interest. In this way the film-maker was able to portray what Thomas Sobochack and Vivian Sobochack call, in An Introduction to Film, the 'inadequacy of human responses when compared with the magnificent technology created by man and the visual beauties of the universe'.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先找出关键词; A 自己的经历； B 特别的目的； C filmmakers在skill上差异很大； D 最成功。   =&gt;  结合段落： A完全未被提及，C，vary 原词出现在第三句，但没提skill 和 filmmaker(后面也是，提到了filmmaker但跟skill没有关系)； 第四句，highly successful =&gt; D错误(注意most只是修饰dialogue)。 B可以跟第1-2句对应，所以应该选B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>plot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> suffers from the filmmaker's wish to focus on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>humorous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dialogue.
+B. The dialogue helps to make it </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>one of the best comedy films</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ever produced.
+C. There is a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>mismatch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> between the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>speed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the dialogue and the speed of actions.
+D. The nature of the dialogue </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>emphasises</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>key elements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the film.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plot 故事
+suffer from  本身就带了负面的意思
+breakneck  飞速的
+underscore   强调 = emphasize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The comedy Bringing Up Baby, on the other hand, presents practically non-stop dialogue delivered at breakneck </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>speed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. This use of dialogue </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>underscores</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> not only the dizzy quality of the character played by Katherine Hepburn, but also the absurdity of the film itself and thus its humor. The audience is bounced from gag to gag and conversation to conversation; there is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve"> no time for audience reflection.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The audience is caught up in a whirlwind of activity in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve"> simply managing to follow the plot. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This film presents pure escapism - largely due to its frenetic dialogue.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A：plot 受到 humorous dialogue的损害；  B，最好的comedy film；  C，speed上的mismatch； D， dialogue强调电影的重点。   结合原文：没说plot有负面，A错误；  B没提到；C，有提到速度，但没提到mismatch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interpreted   理解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A. are often used to give the audience a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve"> false impression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of events in the film.
+B. may be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>interpreted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>different</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ways by different members of the audience.
+C. may be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>modified</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in order to manipulate the audience's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>response</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the film.
+D. tend to be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>more significant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in films presenting </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>realistic situation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Synchronous sounds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve"> contribute to the realism of film and also help to create a particular atmosphere. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">For example, the 'click' of a door being opened may simply serve to convince the audience that the image portrayed is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>real</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and the audience may only subconsciously note the expected sound. However, if the 'click' of an opening door is part of an ominous action such as a burglary, the sound mixer may call attention to the 'click' with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>an increase in volume;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> this helps to engage the audience in a moment of suspense.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB明显不对，increase the volume = modified =&gt; C是对的；   D，本段没有提到任何比较，所以more错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>18 The writer refers to the `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>click</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">' of a door to make the point that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>realistic sounds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  (C)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17 What does the writer suggest about </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>Bringing Up Baby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?  （D）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19  Audiences are likely to be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>surprised</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if a film lacks background music.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20 Background music may </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>anticipate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a development in a film.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We are probably </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>all familiar with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> background music in films, which has become </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>so ubiquitous as to be noticeable in its absence.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> We are aware that it is used to add emotion and rhythm. Usually not meant to be noticeable, it often provides a tone or an emotional attitude toward the story and/or the characters depicted.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In addition, background music </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>often foreshadows a change in mood.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> For example, dissonant music may be used in film to indicate an approaching (but not yet visible) menace or disaster.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve">to be noticeble  in its absense </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt; TRUE.      语法问题: 结合单词不认识，我结合后面的而not meant to be noticeable 猜了FALSE</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anticipate 预测
+anti  反对</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The audience's response to different parts of a film can be controlled 24____</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A character seems to be a real person rather than an actor 26____</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve"> voice textures fit the performer's physiognomy and gestures</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, a whole and very realistic persona emerges. The viewer sees not an actor working at his craft, but another human being struggling with life. </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E. when the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve"> actor's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>appearance, voice and moves are consistent with each other.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">注意，这里是fit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>performer's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> balabala;   所以应该选 actor's =&gt; E  ; 虽然单词不认识，也能圈定的C和E之间 都是三个元素</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位错误，我链接了倒数第二段：liking scenes； 没找到合适的答案，瞎猜猜错了，应该是在第一段(desired effects = control)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> The entire sound track consists of three essential ingredients: the human voice, sound effects and music. These three tracks must be mixed and balanced so as to produce the necessary emphases which in turn create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve"> desired effects.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C. if voice, sound and music are combined appropriately.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test4 - Passage 3 This Marvellous Invention</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选title题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apparently 明显的
+incompatible  不兼容的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选title题可以用纸笔记一下每一个选项的关键词+中文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">iv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>Apparently</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> incompatible characteristics of language</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二段很多单词不认识，那就着重看开头结尾和能读懂的地方。中间提到过少量sound产生无穷的表达，但是没提方法，所以不选ii；结尾的Apparent 原词出现，选iv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">But language is foremost not just because it came first. In its own right it is a tool of extraordinary sophistication, yet based on an idea of ingenious simplicity: ... ... ... ... This </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>apparent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> paradox is at the core of our fascination with language, and it holds many of its secrets.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vii. The universal ability to use language</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千万不要因为没读懂而失去耐心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The most extraordinary thing about language, however, is that one doesn't have to be a genius to set its wheels in motion. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve">The language machine allows just about everybody </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- ... ... ... ... . </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve">The wheels of language run so smoothly that one rarely bothers to stop and think about all the resourcefulness and expertise that must have gone into making it tick. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Language conceals art.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">i. Differences between languages </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>highlight their impressiveness</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据开头 + 结尾；语言allows everybody。 结合选项中的关键词；没有提到difference， different language，和silence；  =&gt; universal ability to use lanuage  （使用语言是人类普遍的能力）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Often, it is only the estrangement of foreign tongues, with their many exotic and outlandish features, that brings home the wonder of language's design. One of the showiest stunts that some languages can pull off is an ability to build up words of breath-breaking length, and thus express in one word what English takes a whole sentence to say. .... .... .... ...</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本段是强调不同语言之间的不同。能定位I 和 iii； 然后根据没有跟关键词sound相关的任何内容，选择 i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">38 The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>Port-Royal grammarian</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s did justice to the nature of language.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>universal 普遍的
+identical  相同的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">39 A complex idea can be explained more clearly in a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>sentence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> than in a single </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>word</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">40 The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>Sumerians</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> were responsible for starting the recording of events.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> This was how, in 1660, the renowned French grammarians of the Port- Royal abbey near Versailles distilled the essence of language, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>no one since has celebrated more eloquently the magnitude of its achievement.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>do justice to 公平对待 = celebrated more eloquently the magnitude  以雄辩的方式赞美了其重要地位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>justice   公平
+do justice to 公平对待</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">And if that sounds like some one-off freak, then consider </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>Sumerian</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, the language spoken on the banks of the Euphrates some 5,000 years ago by the people who invented writing and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>thus enabled the documentation of history.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E段有提到sentence，但是表达的意思不是题干的意思，也不相反，所以选false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="50">
+  <fonts count="51">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -10694,6 +12195,11 @@
       <color rgb="FFFF0000"/>
       <name val="等线 (正文)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线 (正文)"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -10937,8 +12443,8 @@
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>355087</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1180587</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -10998,8 +12504,8 @@
       <xdr:rowOff>1076594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>711201</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1536701</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>177799</xdr:rowOff>
     </xdr:to>
@@ -12481,12 +13987,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A54:D54"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="A10:A14"/>
@@ -12495,6 +13995,12 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A54:D54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12938,10 +14444,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7920F7-7DDE-0D45-8A14-AE1E871C0DF2}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12951,7 +14457,8 @@
     <col min="3" max="3" width="70.6640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="32.33203125" style="8" customWidth="1"/>
     <col min="5" max="5" width="21.83203125" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="8"/>
+    <col min="6" max="6" width="32.33203125" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -13550,18 +15057,318 @@
         <v>486</v>
       </c>
     </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="42" t="s">
+        <v>557</v>
+      </c>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+    </row>
+    <row r="49" spans="1:6" ht="51">
+      <c r="A49" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="51">
+      <c r="A50" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="68">
+      <c r="A51" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="F51" s="32" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="42" t="s">
+        <v>572</v>
+      </c>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+    </row>
+    <row r="53" spans="1:6" ht="170">
+      <c r="A53" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="170">
+      <c r="A54" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="170">
+      <c r="A55" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="187">
+      <c r="A56" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="68">
+      <c r="A57" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="B57" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="51">
+      <c r="A58" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="B58" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="68">
+      <c r="A59" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="68">
+      <c r="A60" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="42" t="s">
+        <v>607</v>
+      </c>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+    </row>
+    <row r="62" spans="1:6" ht="34">
+      <c r="A62" s="32" t="s">
+        <v>608</v>
+      </c>
+      <c r="F62" s="32" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="85">
+      <c r="A63" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="102">
+      <c r="A64" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="F64" s="32" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="85">
+      <c r="A65" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="51">
+      <c r="A66" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="B66" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="51">
+      <c r="A67" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="51">
+      <c r="A68" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="B68" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14424,7 +16231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28F2429-82C5-3F45-A4E1-C5829EDCE53B}">
   <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
